--- a/Logging_KALMAR_LAN/Logging_MONSTERAS/artfynd/A 32298-2023.xlsx
+++ b/Logging_KALMAR_LAN/Logging_MONSTERAS/artfynd/A 32298-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>110915063</v>
+        <v>110915106</v>
       </c>
       <c r="B2" t="n">
-        <v>96334</v>
+        <v>103288</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,30 +692,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>220787</v>
+        <v>221144</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>fullt utvecklade blad</t>
+          <t>blomning</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>585441.8752236688</v>
+        <v>585461.8925125685</v>
       </c>
       <c r="R2" t="n">
-        <v>6315225.284495098</v>
+        <v>6315287.846391106</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -809,10 +809,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>110915106</v>
+        <v>110915063</v>
       </c>
       <c r="B3" t="n">
-        <v>103265</v>
+        <v>96348</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -821,30 +821,30 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>221144</v>
+        <v>220787</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>8</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -854,7 +854,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>blomning</t>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -865,10 +865,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>585461.8925125685</v>
+        <v>585441.8752236688</v>
       </c>
       <c r="R3" t="n">
-        <v>6315287.846391106</v>
+        <v>6315225.284495098</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
